--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2736235.345119935</v>
+        <v>-2738834.140090597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.96577973845553</v>
+        <v>365.648821359138</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227777</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>37.69069145969978</v>
       </c>
       <c r="I3" t="n">
         <v>19.91189527285532</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242886</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079232</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849323</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.105140864292</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>160.5958651236767</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7568625666133</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730292</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272891</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.0656089242822</v>
+        <v>20.88994825141589</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428105</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833821</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892447</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833889</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012167</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,13 +2956,13 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
@@ -2998,10 +2998,10 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972046</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265259</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972037</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265773</v>
+        <v>847.6787171265769</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861657</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4505015794152</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="E2" t="n">
         <v>109.3739563890565</v>
@@ -4325,22 +4325,22 @@
         <v>109.3739563890565</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J2" t="n">
         <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032926</v>
+        <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679884</v>
+        <v>1017.035607679883</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999099</v>
+        <v>1540.237590999098</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778083</v>
       </c>
       <c r="O2" t="n">
         <v>2569.579722854078</v>
@@ -4352,25 +4352,25 @@
         <v>3197.827805704724</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299841</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637407</v>
+        <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674414</v>
+        <v>2935.250468674413</v>
       </c>
       <c r="U2" t="n">
         <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697705</v>
+        <v>2350.652302697704</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427591</v>
+        <v>1997.88364742759</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166511</v>
+        <v>1624.41788916651</v>
       </c>
       <c r="Y2" t="n">
         <v>1234.278557190699</v>
@@ -4389,22 +4389,22 @@
         <v>714.3490580803849</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191335</v>
+        <v>565.4146484191338</v>
       </c>
       <c r="E3" t="n">
-        <v>406.177193413678</v>
+        <v>406.1771934136782</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>259.6426354405633</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>123.2474196889825</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413353</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J3" t="n">
         <v>155.7664206654044</v>
@@ -4413,7 +4413,7 @@
         <v>388.9478577415906</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223335</v>
+        <v>748.8116174223334</v>
       </c>
       <c r="M3" t="n">
         <v>1188.112519465048</v>
@@ -4425,13 +4425,13 @@
         <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824782</v>
+        <v>2361.410240824783</v>
       </c>
       <c r="Q3" t="n">
         <v>2515.0338528903</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.895516105939</v>
+        <v>2512.89551610594</v>
       </c>
       <c r="S3" t="n">
         <v>2382.861096708697</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274264</v>
+        <v>75.02005212274267</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033533</v>
+        <v>170.265004503353</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633493</v>
+        <v>322.0515495633489</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992784</v>
+        <v>485.3474622992782</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206066</v>
+        <v>652.6180891206062</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079664</v>
+        <v>786.8064976079661</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983273</v>
+        <v>882.5658916983269</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529785</v>
+        <v>893.2769546529784</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746307</v>
+        <v>802.2358682746305</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843374</v>
+        <v>610.0807612843372</v>
       </c>
       <c r="T4" t="n">
         <v>388.1991042659416</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556916</v>
+        <v>99.09476877556915</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003183</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107107</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>282.0423703961113</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572855</v>
+        <v>370.0144869816385</v>
       </c>
       <c r="C7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875252</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>979.2965659530264</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>568.3106611634189</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2688.538263200155</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.769607930041</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704887</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269585</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400724</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121654</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703121</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438171</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121638</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>216.8470138298253</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5677,16 +5677,16 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5701,7 +5701,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438171</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656818</v>
@@ -6379,13 +6379,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
@@ -6607,7 +6607,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,16 +6643,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,46 +6923,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.9645903338063</v>
+        <v>16.28154871312375</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22635,13 +22635,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.2132512011061</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.2132512011059</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788598</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393015</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.5498640939313</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823396</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788596</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26366,46 +26366,46 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833871</v>
+        <v>19312.30676833882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75822714202016e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.309604032037948e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097966</v>
+        <v>232219.4755097967</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940811</v>
+        <v>4661.989000940853</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363171</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
-        <v>4.884615179364601e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>572.0114859742</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685499</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14216.75207685501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="K4" t="n">
         <v>22207.61133994851</v>
       </c>
-      <c r="K4" t="n">
-        <v>22207.61133994852</v>
-      </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994859</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994859</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994859</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311426</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220650.0341779384</v>
+        <v>-220650.0341779385</v>
       </c>
       <c r="D6" t="n">
-        <v>-201337.7274095997</v>
+        <v>-201337.7274095996</v>
       </c>
       <c r="E6" t="n">
-        <v>-440751.7437081177</v>
+        <v>-440786.481633553</v>
       </c>
       <c r="F6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="G6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261978</v>
       </c>
       <c r="H6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261978</v>
       </c>
       <c r="I6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="J6" t="n">
         <v>-357591.2027036606</v>
       </c>
       <c r="K6" t="n">
-        <v>-130033.7161948047</v>
+        <v>-130033.7161948048</v>
       </c>
       <c r="L6" t="n">
+        <v>-125371.727193864</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-210426.7551293757</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-125371.727193864</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-144799.4451874957</v>
+      </c>
+      <c r="P6" t="n">
         <v>-125371.7271938639</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-210426.7551293759</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-125371.7271938639</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-144799.4451874956</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-125371.727193864</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,25 +26917,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1977839275252e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203963</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>5.750497606325701e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>6.105768974205751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733227</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733227</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1977839275252e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203963</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>5.750497606325701e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733227</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303188</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781097</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369557</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227717</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>250.3258605297767</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.16110757300686</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117342</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948324</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,28 +33506,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,28 +33980,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,28 +34217,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622667</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,34 +34448,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943673</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281407</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37713,13 +37713,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402485</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723489</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
